--- a/myapp/www/data sektor technology.xlsx
+++ b/myapp/www/data sektor technology.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATCAL VERSI ONLINE\STATCAL FOR IDX\aplikasi\myapp\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATCAL VERSI ONLINE\STATCAL FOR IDX\TECHNOLOGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAECD336-8916-41D2-B46D-41EA43DBECBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2167B078-8EC8-46BE-92D0-D469272868C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="205">
   <si>
     <t>Sector</t>
   </si>
@@ -465,7 +465,28 @@
     <t>Share</t>
   </si>
   <si>
-    <t>08/07/2015</t>
+    <t>https://drive.google.com/file/d/1jhZvnhO8lQ82TwIb-3ceoBGDOO1iQqr1/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Consolidated Financial Statements 2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FsaTX7MPYFvMVgAbcDBQ2Uyk7Y1DD0e_/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1keUkxjJvxAHNIbCEph_YC1efM2eA1YWt/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1c_wqoJfcX1cECTEyoeOjnZA6y9IXYaN4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1JgXhHh8ph8a9CiGBJt3UpnwTDX_dhZdu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FT49AGgqzx50OkLslZTE6QjBPwQo1pIJ/view?usp=sharing</t>
   </si>
   <si>
     <t>'08-Jul-15</t>
@@ -601,6 +622,24 @@
   </si>
   <si>
     <t>'28-Nov-18</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1jvY-_VZa0vSpYe-KGt8iMDyCtbSe6jEj/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BLRV7KbxHsIMgN6q-jbqrT7uznaEss2F/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WNtpNPOzNn0dS_43L8VBmSJPV1nwYRPd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Annual &amp; Sustainable 2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11isq73ZfzOXxN1929VaDsUSwrg1rmsW5/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WYXhYGoV4Cgj47CzBfSUtE_Xe6Nsg6VY/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -692,7 +731,7 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -978,9 +1017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -988,26 +1027,26 @@
     <col min="1" max="1" width="19.26953125" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.90625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.90625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" style="1"/>
     <col min="6" max="6" width="26" style="1" customWidth="1"/>
     <col min="7" max="8" width="26" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49.7265625" style="1" customWidth="1"/>
     <col min="10" max="10" width="54.1796875" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.08984375" style="1" customWidth="1"/>
-    <col min="12" max="13" width="34.54296875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="31.26953125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.1796875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="27.08984375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="23.453125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24" style="1" customWidth="1"/>
-    <col min="19" max="19" width="24.6328125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="34.54296875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="31.26953125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="27.1796875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="27.08984375" style="5" customWidth="1"/>
+    <col min="17" max="17" width="23.453125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="24" style="5" customWidth="1"/>
+    <col min="19" max="19" width="24.6328125" style="5" customWidth="1"/>
     <col min="20" max="20" width="19.08984375" style="1" customWidth="1"/>
     <col min="21" max="21" width="31.81640625" style="1" customWidth="1"/>
     <col min="22" max="22" width="22.54296875" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.1796875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="26.54296875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="28.90625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.1796875" style="5" customWidth="1"/>
+    <col min="24" max="24" width="26.54296875" style="5" customWidth="1"/>
+    <col min="25" max="25" width="28.90625" style="5" customWidth="1"/>
     <col min="26" max="27" width="26.6328125" style="5" customWidth="1"/>
     <col min="28" max="29" width="31.6328125" style="3" customWidth="1"/>
     <col min="30" max="30" width="29" style="3" customWidth="1"/>
@@ -1056,28 +1095,28 @@
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="5" t="s">
         <v>23</v>
       </c>
       <c r="T1" s="4" t="s">
@@ -1089,13 +1128,13 @@
       <c r="V1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="5" t="s">
         <v>28</v>
       </c>
       <c r="Z1" s="5" t="s">
@@ -1157,8 +1196,8 @@
       <c r="E2" s="1">
         <v>2023</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>146</v>
+      <c r="F2" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="G2" s="3">
         <v>2015</v>
@@ -1175,28 +1214,28 @@
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="5">
         <v>4559536624528</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="5">
         <v>878111212552</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="5">
         <v>5437647837080</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="5">
         <v>4288592581441</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="5">
         <v>755699032003</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="5">
         <v>5044291613444</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="5">
         <v>393356223636</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="5">
         <v>10207024936502</v>
       </c>
       <c r="T2" s="3">
@@ -1208,13 +1247,13 @@
       <c r="V2" s="3">
         <v>533710993150</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="5">
         <v>9645966797</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="5">
         <v>522981855040</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="5">
         <v>342535469318</v>
       </c>
       <c r="Z2" s="5">
@@ -1277,7 +1316,7 @@
         <v>2022</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G3" s="3">
         <v>2015</v>
@@ -1294,28 +1333,28 @@
       <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="5">
         <v>3001327114972</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="5">
         <v>1215737187687</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="5">
         <v>4217064302659</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="5">
         <v>3353753528335</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="5">
         <v>701558205030</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="5">
         <v>4055311733365</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="5">
         <v>161752569294</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="5">
         <v>7809976522248</v>
       </c>
       <c r="T3" s="3">
@@ -1327,13 +1366,13 @@
       <c r="V3" s="3">
         <v>309044518624</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="5">
         <v>62915820323</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="5">
         <v>245078906965</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="5">
         <v>143577060553</v>
       </c>
       <c r="Z3" s="5">
@@ -1396,7 +1435,7 @@
         <v>2023</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G4" s="3">
         <v>2010</v>
@@ -1404,18 +1443,66 @@
       <c r="H4" s="3">
         <v>61391751483</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="5">
+        <v>15825106228000</v>
+      </c>
+      <c r="M4" s="5">
+        <v>27066144302000</v>
+      </c>
+      <c r="N4" s="5">
+        <v>42891250530000</v>
+      </c>
+      <c r="O4" s="5">
+        <v>3208074535000</v>
+      </c>
+      <c r="P4" s="5">
+        <v>1311415542000</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>4519490077000</v>
+      </c>
+      <c r="R4" s="5">
+        <v>38371760453000</v>
+      </c>
+      <c r="S4" s="5">
+        <v>9241419373000</v>
+      </c>
+      <c r="T4" s="3">
+        <v>6378012754000</v>
+      </c>
+      <c r="U4" s="3">
+        <v>2863406619000</v>
+      </c>
+      <c r="V4" s="3">
+        <v>-200786436000</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>-239979947000</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>-2.31</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1138470338000</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>-1858085826000</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>-612772273000</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>7210978131000</v>
+      </c>
       <c r="AE4" s="8">
         <v>1185</v>
       </c>
@@ -1461,7 +1548,7 @@
         <v>2022</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G5" s="3">
         <v>2010</v>
@@ -1469,18 +1556,66 @@
       <c r="H5" s="3">
         <v>61391751483</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="5">
+        <v>16503758500000</v>
+      </c>
+      <c r="M5" s="5">
+        <v>27965266917000</v>
+      </c>
+      <c r="N5" s="5">
+        <v>44469025417000</v>
+      </c>
+      <c r="O5" s="5">
+        <v>3129319807000</v>
+      </c>
+      <c r="P5" s="5">
+        <v>1443117127000</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>4572436934000</v>
+      </c>
+      <c r="R5" s="5">
+        <v>39896588483000</v>
+      </c>
+      <c r="S5" s="5">
+        <v>9856136055000</v>
+      </c>
+      <c r="T5" s="3">
+        <v>6534450024000</v>
+      </c>
+      <c r="U5" s="3">
+        <v>3321686031000</v>
+      </c>
+      <c r="V5" s="3">
+        <v>695636751000</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>5462058450000</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>89.39</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>-810999249000</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>1497302358000</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1942476149000</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>8712637748000</v>
+      </c>
       <c r="AE5" s="8">
         <v>3070</v>
       </c>
@@ -1526,7 +1661,7 @@
         <v>2023</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G6" s="3">
         <v>2002</v>
@@ -1534,13 +1669,60 @@
       <c r="H6" s="3">
         <v>18208470100</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1542542507811</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1366934931245</v>
+      </c>
+      <c r="N6" s="5">
+        <v>2909477439056</v>
+      </c>
+      <c r="O6" s="5">
+        <v>667857070636</v>
+      </c>
+      <c r="P6" s="5">
+        <v>161948752256</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>829805822892</v>
+      </c>
+      <c r="R6" s="5">
+        <v>2079671616164</v>
+      </c>
+      <c r="S6" s="5">
+        <v>11675104332787</v>
+      </c>
+      <c r="T6" s="3">
+        <v>11702299539704</v>
+      </c>
+      <c r="Y6" s="5">
+        <v>-52901838328</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>-3.06</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>131809759243</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>-192893313219</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>8496627478</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>267883075008</v>
+      </c>
       <c r="AE6" s="8">
         <v>50</v>
       </c>
@@ -1584,7 +1766,7 @@
         <v>2022</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G7" s="3">
         <v>2002</v>
@@ -1592,13 +1774,60 @@
       <c r="H7" s="3">
         <v>18208470100</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="I7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1620923625824</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1249155695221</v>
+      </c>
+      <c r="N7" s="5">
+        <v>2870079321045</v>
+      </c>
+      <c r="O7" s="5">
+        <v>583507966512</v>
+      </c>
+      <c r="P7" s="5">
+        <v>44537683002</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>628045649514</v>
+      </c>
+      <c r="R7" s="5">
+        <v>2242033671531</v>
+      </c>
+      <c r="S7" s="5">
+        <v>12272140714358</v>
+      </c>
+      <c r="T7" s="3">
+        <v>12326135531600</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>-61853930426</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>-5.43</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>36679604769</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>-33969802930</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>-66253378044</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>320470001506</v>
+      </c>
       <c r="AE7" s="3">
         <v>102</v>
       </c>
@@ -1644,7 +1873,7 @@
         <v>2023</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G8" s="3">
         <v>2001</v>
@@ -1652,12 +1881,6 @@
       <c r="H8" s="3">
         <v>787851525</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="AG8" s="1">
         <v>50</v>
@@ -1698,7 +1921,7 @@
         <v>2022</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G9" s="3">
         <v>2001</v>
@@ -1706,12 +1929,6 @@
       <c r="H9" s="3">
         <v>787851525</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="AE9" s="3">
         <v>105</v>
@@ -1758,7 +1975,7 @@
         <v>2023</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G10" s="3">
         <v>2013</v>
@@ -1766,6 +1983,42 @@
       <c r="H10" s="3">
         <v>1875000000</v>
       </c>
+      <c r="I10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1988687000000</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1132922000000</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3121609000000</v>
+      </c>
+      <c r="O10" s="5">
+        <v>2058916000000</v>
+      </c>
+      <c r="P10" s="5">
+        <v>348944000000</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>2407860000000</v>
+      </c>
+      <c r="R10" s="5">
+        <v>713749000000</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>224469000000</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>120</v>
+      </c>
       <c r="AE10" s="3">
         <v>2140</v>
       </c>
@@ -1811,7 +2064,7 @@
         <v>2022</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G11" s="3">
         <v>2013</v>
@@ -1819,6 +2072,42 @@
       <c r="H11" s="3">
         <v>1875000000</v>
       </c>
+      <c r="I11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2071273000000</v>
+      </c>
+      <c r="M11" s="5">
+        <v>649511000000</v>
+      </c>
+      <c r="N11" s="5">
+        <v>2720784000000</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1762829000000</v>
+      </c>
+      <c r="P11" s="5">
+        <v>133532000000</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1896361000000</v>
+      </c>
+      <c r="R11" s="5">
+        <v>824423000000</v>
+      </c>
+      <c r="Y11" s="5">
+        <v>556089000000</v>
+      </c>
+      <c r="Z11" s="5">
+        <v>298</v>
+      </c>
       <c r="AE11" s="3">
         <v>4300</v>
       </c>
@@ -1864,7 +2153,7 @@
         <v>2023</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G12" s="3">
         <v>1990</v>
@@ -1872,6 +2161,45 @@
       <c r="H12" s="3">
         <v>12276884585</v>
       </c>
+      <c r="I12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="5">
+        <v>9313853000000</v>
+      </c>
+      <c r="M12" s="5">
+        <v>832717000000</v>
+      </c>
+      <c r="N12" s="5">
+        <v>10146570000000</v>
+      </c>
+      <c r="O12" s="5">
+        <v>4849005000000</v>
+      </c>
+      <c r="P12" s="5">
+        <v>259429000000</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>5108434000000</v>
+      </c>
+      <c r="R12" s="5">
+        <v>5038136000000</v>
+      </c>
+      <c r="S12" s="5">
+        <v>22086390000000</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>940104000000</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>53</v>
+      </c>
       <c r="AE12" s="3">
         <v>610</v>
       </c>
@@ -1917,7 +2245,7 @@
         <v>2022</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G13" s="3">
         <v>1990</v>
@@ -1925,6 +2253,45 @@
       <c r="H13" s="3">
         <v>12276884585</v>
       </c>
+      <c r="I13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="5">
+        <v>7898375000000</v>
+      </c>
+      <c r="M13" s="5">
+        <v>684521000000</v>
+      </c>
+      <c r="N13" s="5">
+        <v>8582896000000</v>
+      </c>
+      <c r="O13" s="5">
+        <v>4028949000000</v>
+      </c>
+      <c r="P13" s="5">
+        <v>137084000000</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>4166033000000</v>
+      </c>
+      <c r="R13" s="5">
+        <v>4416863000000</v>
+      </c>
+      <c r="S13" s="5">
+        <v>20988297000000</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>866721000000</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>47</v>
+      </c>
       <c r="AE13" s="3">
         <v>845</v>
       </c>
@@ -1970,7 +2337,7 @@
         <v>2023</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G14" s="3">
         <v>2007</v>
@@ -1978,6 +2345,43 @@
       <c r="H14" s="3">
         <v>5314344000</v>
       </c>
+      <c r="I14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="5">
+        <v>55771982</v>
+      </c>
+      <c r="M14" s="5">
+        <v>96362939</v>
+      </c>
+      <c r="N14" s="5">
+        <v>152134921</v>
+      </c>
+      <c r="O14" s="5">
+        <v>18538709</v>
+      </c>
+      <c r="P14" s="5">
+        <v>24722626</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>43261335</v>
+      </c>
+      <c r="R14" s="5">
+        <v>108873586</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>11168318</v>
+      </c>
+      <c r="Z14" s="5">
+        <f>(Y14/H14)*15000</f>
+        <v>31.523132488224324</v>
+      </c>
       <c r="AE14" s="3">
         <v>274</v>
       </c>
@@ -2023,7 +2427,7 @@
         <v>2022</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G15" s="3">
         <v>2007</v>
@@ -2031,6 +2435,43 @@
       <c r="H15" s="3">
         <v>5314344000</v>
       </c>
+      <c r="I15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" s="5">
+        <v>51150736</v>
+      </c>
+      <c r="M15" s="5">
+        <v>96465498</v>
+      </c>
+      <c r="N15" s="5">
+        <v>147616234</v>
+      </c>
+      <c r="O15" s="5">
+        <v>21976460</v>
+      </c>
+      <c r="P15" s="5">
+        <v>25968893</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>47945353</v>
+      </c>
+      <c r="R15" s="5">
+        <v>99670881</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>9925108</v>
+      </c>
+      <c r="Z15" s="5">
+        <f>(Y15/H15)*15000</f>
+        <v>28.014110490401073</v>
+      </c>
       <c r="AE15" s="3">
         <v>272</v>
       </c>
@@ -2076,7 +2517,7 @@
         <v>2023</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G16" s="3">
         <v>2010</v>
@@ -2123,7 +2564,7 @@
         <v>2022</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="G17" s="3">
         <v>2010</v>
@@ -2167,7 +2608,7 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G18" s="3">
         <v>2017</v>
@@ -2175,6 +2616,42 @@
       <c r="H18" s="3">
         <v>1075862960</v>
       </c>
+      <c r="I18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="5">
+        <v>68666781093</v>
+      </c>
+      <c r="M18" s="5">
+        <v>97622529297</v>
+      </c>
+      <c r="N18" s="5">
+        <v>166289310390</v>
+      </c>
+      <c r="O18" s="5">
+        <v>14039011707</v>
+      </c>
+      <c r="P18" s="5">
+        <v>578160973</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>14617172680</v>
+      </c>
+      <c r="R18" s="5">
+        <v>151672137710</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>-17078969802</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>-15.94</v>
+      </c>
       <c r="AE18" s="3">
         <v>180</v>
       </c>
@@ -2220,7 +2697,7 @@
         <v>2022</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G19" s="3">
         <v>2017</v>
@@ -2228,6 +2705,42 @@
       <c r="H19" s="3">
         <v>1075862960</v>
       </c>
+      <c r="I19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="5">
+        <v>84184204668</v>
+      </c>
+      <c r="M19" s="5">
+        <v>95979300383</v>
+      </c>
+      <c r="N19" s="5">
+        <v>180163505051</v>
+      </c>
+      <c r="O19" s="5">
+        <v>11206897675</v>
+      </c>
+      <c r="P19" s="5">
+        <v>87059808</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>11293957483</v>
+      </c>
+      <c r="R19" s="5">
+        <v>168869547568</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>819110464</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.87</v>
+      </c>
       <c r="AE19" s="3">
         <v>660</v>
       </c>
@@ -2273,7 +2786,7 @@
         <v>2023</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G20" s="3">
         <v>2017</v>
@@ -2281,6 +2794,42 @@
       <c r="H20" s="3">
         <v>867933300</v>
       </c>
+      <c r="I20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1276232504419</v>
+      </c>
+      <c r="M20" s="5">
+        <v>713742161819</v>
+      </c>
+      <c r="N20" s="5">
+        <v>1989974666238</v>
+      </c>
+      <c r="O20" s="5">
+        <v>661462748671</v>
+      </c>
+      <c r="P20" s="5">
+        <v>158569140407</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>820031889078</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1169942777160</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>2863738841</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>0.62</v>
+      </c>
       <c r="AE20" s="3">
         <v>9800</v>
       </c>
@@ -2326,7 +2875,7 @@
         <v>2022</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="G21" s="3">
         <v>2017</v>
@@ -2334,6 +2883,42 @@
       <c r="H21" s="3">
         <v>867933300</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1310660900412</v>
+      </c>
+      <c r="M21" s="5">
+        <v>600707559135</v>
+      </c>
+      <c r="N21" s="5">
+        <v>1911368459547</v>
+      </c>
+      <c r="O21" s="5">
+        <v>583495864253</v>
+      </c>
+      <c r="P21" s="5">
+        <v>33482442354</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>616978306607</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1294390152940</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>40648046814</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>28.59</v>
+      </c>
       <c r="AE21" s="3">
         <v>14450</v>
       </c>
@@ -2379,7 +2964,7 @@
         <v>2023</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G22" s="3">
         <v>2018</v>
@@ -2387,6 +2972,42 @@
       <c r="H22" s="3">
         <v>666667500</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1040256272179</v>
+      </c>
+      <c r="M22" s="5">
+        <v>537604241127</v>
+      </c>
+      <c r="N22" s="5">
+        <v>1577860513306</v>
+      </c>
+      <c r="O22" s="5">
+        <v>532705391800</v>
+      </c>
+      <c r="P22" s="5">
+        <v>153137614999</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>685843006799</v>
+      </c>
+      <c r="R22" s="5">
+        <v>892017506507</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>-477757489174</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>-418.52</v>
+      </c>
       <c r="AE22" s="3">
         <v>8000</v>
       </c>
@@ -2429,7 +3050,7 @@
         <v>2022</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="G23" s="3">
         <v>2018</v>
@@ -2437,6 +3058,42 @@
       <c r="H23" s="3">
         <v>666667500</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="5">
+        <v>1440632539350</v>
+      </c>
+      <c r="M23" s="5">
+        <v>419322500995</v>
+      </c>
+      <c r="N23" s="5">
+        <v>1859955040345</v>
+      </c>
+      <c r="O23" s="5">
+        <v>452066147373</v>
+      </c>
+      <c r="P23" s="5">
+        <v>34365594334</v>
+      </c>
+      <c r="Q23" s="5">
+        <v>486431741707</v>
+      </c>
+      <c r="R23" s="5">
+        <v>1373523298638</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>23324457502</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>35.47</v>
+      </c>
       <c r="AE23" s="3">
         <v>13375</v>
       </c>
@@ -2482,7 +3139,7 @@
         <v>2023</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G24" s="3">
         <v>2019</v>
@@ -2490,6 +3147,42 @@
       <c r="H24" s="3">
         <v>1800000000</v>
       </c>
+      <c r="I24" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="5">
+        <v>13657124939</v>
+      </c>
+      <c r="M24" s="5">
+        <v>1773953555</v>
+      </c>
+      <c r="N24" s="5">
+        <v>15431078494</v>
+      </c>
+      <c r="O24" s="5">
+        <v>57272052458</v>
+      </c>
+      <c r="P24" s="5">
+        <v>74486813</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>57346539271</v>
+      </c>
+      <c r="R24" s="5">
+        <v>-41915460777</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>-30878971139</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>-17.149999999999999</v>
+      </c>
       <c r="AG24" s="1">
         <v>50</v>
       </c>
@@ -2517,7 +3210,7 @@
         <v>2022</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G25" s="3">
         <v>2019</v>
@@ -2525,6 +3218,42 @@
       <c r="H25" s="3">
         <v>1800000000</v>
       </c>
+      <c r="I25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="5">
+        <v>16032218513</v>
+      </c>
+      <c r="M25" s="5">
+        <v>19327925382</v>
+      </c>
+      <c r="N25" s="5">
+        <v>35360143895</v>
+      </c>
+      <c r="O25" s="5">
+        <v>46194856164</v>
+      </c>
+      <c r="P25" s="5">
+        <v>602904819</v>
+      </c>
+      <c r="Q25" s="5">
+        <v>46797760983</v>
+      </c>
+      <c r="R25" s="5">
+        <v>-11437617088</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>-33742870301</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>-18.75</v>
+      </c>
       <c r="AG25" s="1">
         <v>50</v>
       </c>
@@ -2552,7 +3281,7 @@
         <v>2023</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G26" s="3">
         <v>2019</v>
@@ -2560,6 +3289,42 @@
       <c r="H26" s="3">
         <v>1524680000</v>
       </c>
+      <c r="I26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="5">
+        <v>287216031994</v>
+      </c>
+      <c r="M26" s="5">
+        <v>60815962925</v>
+      </c>
+      <c r="N26" s="5">
+        <v>348031994919</v>
+      </c>
+      <c r="O26" s="5">
+        <v>34341152046</v>
+      </c>
+      <c r="P26" s="5">
+        <v>24963890267</v>
+      </c>
+      <c r="Q26" s="5">
+        <v>59305042313</v>
+      </c>
+      <c r="R26" s="5">
+        <v>288726952606</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>-42158663403</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>-27.65</v>
+      </c>
       <c r="AE26" s="3">
         <v>61</v>
       </c>
@@ -2605,7 +3370,7 @@
         <v>2022</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G27" s="3">
         <v>2019</v>
@@ -2613,6 +3378,42 @@
       <c r="H27" s="3">
         <v>1524680000</v>
       </c>
+      <c r="I27" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="5">
+        <v>286310134767</v>
+      </c>
+      <c r="M27" s="5">
+        <v>68207271550</v>
+      </c>
+      <c r="N27" s="5">
+        <v>354517406317</v>
+      </c>
+      <c r="O27" s="5">
+        <v>15024420555</v>
+      </c>
+      <c r="P27" s="5">
+        <v>8784992463</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>23809413018</v>
+      </c>
+      <c r="R27" s="5">
+        <v>330707993299</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>-22869714936</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>-15</v>
+      </c>
       <c r="AE27" s="3">
         <v>342</v>
       </c>
@@ -2658,7 +3459,7 @@
         <v>2023</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G28" s="3">
         <v>2019</v>
@@ -2666,6 +3467,42 @@
       <c r="H28" s="3">
         <v>1666666500</v>
       </c>
+      <c r="I28" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="5">
+        <v>216937832815</v>
+      </c>
+      <c r="M28" s="5">
+        <v>39149705995</v>
+      </c>
+      <c r="N28" s="5">
+        <v>256087538810</v>
+      </c>
+      <c r="O28" s="5">
+        <v>60193977217</v>
+      </c>
+      <c r="P28" s="5">
+        <v>2512014274</v>
+      </c>
+      <c r="Q28" s="5">
+        <v>62705991491</v>
+      </c>
+      <c r="R28" s="5">
+        <v>193381547319</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>890780769</v>
+      </c>
+      <c r="Z28" s="5">
+        <v>0.54</v>
+      </c>
       <c r="AE28" s="3">
         <v>5350</v>
       </c>
@@ -2708,7 +3545,7 @@
         <v>2022</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G29" s="3">
         <v>2019</v>
@@ -2716,6 +3553,42 @@
       <c r="H29" s="3">
         <v>1666666500</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="5">
+        <v>219870829003</v>
+      </c>
+      <c r="M29" s="5">
+        <v>43739957446</v>
+      </c>
+      <c r="N29" s="5">
+        <v>263610786449</v>
+      </c>
+      <c r="O29" s="5">
+        <v>69163398766</v>
+      </c>
+      <c r="P29" s="5">
+        <v>2736902563</v>
+      </c>
+      <c r="Q29" s="5">
+        <v>71900301329</v>
+      </c>
+      <c r="R29" s="5">
+        <v>191710485120</v>
+      </c>
+      <c r="Y29" s="5">
+        <v>1345508054</v>
+      </c>
+      <c r="Z29" s="5">
+        <v>0.72</v>
+      </c>
       <c r="AE29" s="3">
         <v>5900</v>
       </c>
@@ -2761,7 +3634,7 @@
         <v>2023</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G30" s="3">
         <v>2019</v>
@@ -2814,7 +3687,7 @@
         <v>2022</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G31" s="3">
         <v>2019</v>
@@ -2867,7 +3740,7 @@
         <v>2023</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G32" s="3">
         <v>2019</v>
@@ -2917,7 +3790,7 @@
         <v>2022</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G33" s="3">
         <v>2019</v>
@@ -2970,7 +3843,7 @@
         <v>2023</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G34" s="3">
         <v>2020</v>
@@ -3023,7 +3896,7 @@
         <v>2022</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="G35" s="3">
         <v>2020</v>
@@ -3076,7 +3949,7 @@
         <v>2023</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G36" s="3">
         <v>2020</v>
@@ -3129,7 +4002,7 @@
         <v>2022</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G37" s="3">
         <v>2020</v>
@@ -3182,7 +4055,7 @@
         <v>2023</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G38" s="3">
         <v>2020</v>
@@ -3232,7 +4105,7 @@
         <v>2022</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="G39" s="3">
         <v>2020</v>
@@ -3285,7 +4158,7 @@
         <v>2023</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G40" s="3">
         <v>2020</v>
@@ -3338,7 +4211,7 @@
         <v>2022</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G41" s="3">
         <v>2020</v>
@@ -3391,7 +4264,7 @@
         <v>2023</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G42" s="3">
         <v>2021</v>
@@ -3441,7 +4314,7 @@
         <v>2022</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G43" s="3">
         <v>2021</v>
@@ -3494,7 +4367,7 @@
         <v>2023</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G44" s="3">
         <v>2021</v>
@@ -3544,7 +4417,7 @@
         <v>2022</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G45" s="3">
         <v>2021</v>
@@ -3597,7 +4470,7 @@
         <v>2023</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G46" s="3">
         <v>2021</v>
@@ -3650,7 +4523,7 @@
         <v>2022</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G47" s="3">
         <v>2021</v>
@@ -3703,7 +4576,7 @@
         <v>2023</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G48" s="3">
         <v>2021</v>
@@ -3756,7 +4629,7 @@
         <v>2022</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="G49" s="3">
         <v>2021</v>
@@ -3809,7 +4682,7 @@
         <v>2023</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G50" s="3">
         <v>2021</v>
@@ -3862,7 +4735,7 @@
         <v>2022</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="G51" s="3">
         <v>2021</v>
@@ -3915,7 +4788,7 @@
         <v>2023</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G52" s="3">
         <v>2021</v>
@@ -3968,7 +4841,7 @@
         <v>2022</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G53" s="3">
         <v>2021</v>
@@ -4021,7 +4894,7 @@
         <v>2023</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G54" s="3">
         <v>2021</v>
@@ -4074,7 +4947,7 @@
         <v>2022</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="G55" s="3">
         <v>2021</v>
@@ -4127,7 +5000,7 @@
         <v>2023</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G56" s="3">
         <v>2022</v>
@@ -4180,7 +5053,7 @@
         <v>2022</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G57" s="3">
         <v>2022</v>
@@ -4233,7 +5106,7 @@
         <v>2023</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G58" s="3">
         <v>2022</v>
@@ -4286,7 +5159,7 @@
         <v>2022</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G59" s="3">
         <v>2022</v>
@@ -4339,7 +5212,7 @@
         <v>2023</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G60" s="3">
         <v>2022</v>
@@ -4392,7 +5265,7 @@
         <v>2022</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G61" s="3">
         <v>2022</v>
@@ -4445,7 +5318,7 @@
         <v>2023</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G62" s="3">
         <v>2022</v>
@@ -4498,7 +5371,7 @@
         <v>2022</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="G63" s="3">
         <v>2022</v>
@@ -4551,7 +5424,7 @@
         <v>2023</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G64" s="3">
         <v>2022</v>
@@ -4604,7 +5477,7 @@
         <v>2022</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="G65" s="3">
         <v>2022</v>
@@ -4657,7 +5530,7 @@
         <v>2023</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G66" s="3">
         <v>2023</v>
@@ -4710,7 +5583,7 @@
         <v>2022</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G67" s="3">
         <v>2023</v>
@@ -4737,7 +5610,7 @@
         <v>2023</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G68" s="3">
         <v>2023</v>
@@ -4790,7 +5663,7 @@
         <v>2022</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G69" s="3">
         <v>2023</v>
@@ -4817,7 +5690,7 @@
         <v>2023</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G70" s="3">
         <v>2023</v>
@@ -4867,7 +5740,7 @@
         <v>2022</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="G71" s="3">
         <v>2023</v>
@@ -4894,7 +5767,7 @@
         <v>2023</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G72" s="3">
         <v>2023</v>
@@ -4947,7 +5820,7 @@
         <v>2022</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G73" s="3">
         <v>2023</v>
@@ -4974,7 +5847,7 @@
         <v>2023</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G74" s="3">
         <v>2023</v>
@@ -5027,7 +5900,7 @@
         <v>2022</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G75" s="3">
         <v>2023</v>
@@ -5054,7 +5927,7 @@
         <v>2023</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G76" s="3">
         <v>2023</v>
@@ -5107,7 +5980,7 @@
         <v>2022</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="G77" s="3">
         <v>2023</v>
@@ -5134,7 +6007,7 @@
         <v>2023</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G78" s="3">
         <v>2023</v>
@@ -5187,7 +6060,7 @@
         <v>2022</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G79" s="3">
         <v>2023</v>
@@ -5214,7 +6087,7 @@
         <v>2023</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G80" s="3">
         <v>2023</v>
@@ -5267,7 +6140,7 @@
         <v>2022</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G81" s="3">
         <v>2023</v>
@@ -5294,7 +6167,7 @@
         <v>2023</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G82" s="3">
         <v>2023</v>
@@ -5347,7 +6220,7 @@
         <v>2022</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G83" s="3">
         <v>2023</v>
@@ -5374,7 +6247,7 @@
         <v>2023</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G84" s="3">
         <v>2023</v>
@@ -5427,7 +6300,7 @@
         <v>2022</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G85" s="3">
         <v>2023</v>
@@ -5455,7 +6328,7 @@
         <v>2023</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G86" s="3">
         <v>2024</v>
@@ -5483,7 +6356,7 @@
         <v>2022</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G87" s="3">
         <v>2024</v>
@@ -5511,7 +6384,7 @@
         <v>2023</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G88" s="3">
         <v>2024</v>
@@ -5539,7 +6412,7 @@
         <v>2022</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="G89" s="3">
         <v>2024</v>
@@ -5567,7 +6440,7 @@
         <v>2023</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G90" s="3">
         <v>2024</v>
@@ -5595,7 +6468,7 @@
         <v>2022</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="G91" s="3">
         <v>2024</v>
@@ -5623,7 +6496,7 @@
         <v>2023</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G92" s="3">
         <v>2018</v>
@@ -5676,7 +6549,7 @@
         <v>2022</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G93" s="3">
         <v>2018</v>
@@ -5729,7 +6602,7 @@
         <v>2023</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G94" s="3">
         <v>2018</v>
@@ -5782,7 +6655,7 @@
         <v>2022</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G95" s="3">
         <v>2018</v>
@@ -5900,6 +6773,28 @@
     <hyperlink ref="AM93" r:id="rId78" xr:uid="{95E3F2D5-5F2F-48A1-9C18-2C1D08EE5EBA}"/>
     <hyperlink ref="AM94" r:id="rId79" xr:uid="{46F231BC-05F1-4B71-AC89-2078BC9B1B06}"/>
     <hyperlink ref="AM95" r:id="rId80" xr:uid="{BD8ADAD9-1B27-4A5D-BB69-BE33631478CF}"/>
+    <hyperlink ref="J4" r:id="rId81" xr:uid="{4C506A41-7EE5-43CE-A0E1-464B242B1456}"/>
+    <hyperlink ref="J5" r:id="rId82" xr:uid="{D086BCC0-5618-4588-9F0A-B8B0F404DAF3}"/>
+    <hyperlink ref="J6" r:id="rId83" xr:uid="{4006EA09-4129-4FE9-90CF-0E17B92A1898}"/>
+    <hyperlink ref="J7" r:id="rId84" xr:uid="{27202792-4FC3-4363-BA6A-B96199FAC8F3}"/>
+    <hyperlink ref="J10" r:id="rId85" xr:uid="{97BC0AFC-27D5-42CD-90BE-053B2F91320C}"/>
+    <hyperlink ref="J11" r:id="rId86" xr:uid="{B01E8E77-8FAE-420F-9F5C-E469710C9BEB}"/>
+    <hyperlink ref="J12" r:id="rId87" xr:uid="{6094F598-E203-4CF3-BA9A-59E0A0E53EBD}"/>
+    <hyperlink ref="J13" r:id="rId88" xr:uid="{BB614395-6CF2-4E4F-81FE-6BB122B7D5D6}"/>
+    <hyperlink ref="J14" r:id="rId89" xr:uid="{D70020B2-41D6-43F4-B814-FAA491DCCAA9}"/>
+    <hyperlink ref="J15" r:id="rId90" xr:uid="{6B428912-FD5E-4E2C-A20B-11B8B32FB698}"/>
+    <hyperlink ref="J18" r:id="rId91" xr:uid="{8CFB8ABF-7305-40E4-9582-9BA82CC774A8}"/>
+    <hyperlink ref="J19" r:id="rId92" xr:uid="{5F57F430-849A-48A3-A740-21E76601A5FA}"/>
+    <hyperlink ref="J20" r:id="rId93" xr:uid="{AAD4EAFA-5211-4184-B126-DE24749AFB17}"/>
+    <hyperlink ref="J21" r:id="rId94" xr:uid="{946D8B5E-0CA7-485A-9A75-D820E72A96CD}"/>
+    <hyperlink ref="J22" r:id="rId95" xr:uid="{8D88117C-5942-4FD5-B557-97787C951B78}"/>
+    <hyperlink ref="J23" r:id="rId96" xr:uid="{90605375-F30B-4B04-853F-91D86358540C}"/>
+    <hyperlink ref="J24" r:id="rId97" xr:uid="{F4494DB3-0DB7-4484-8302-8919F9881A39}"/>
+    <hyperlink ref="J25" r:id="rId98" xr:uid="{53CF5E6A-C727-4428-B8FB-44D1DE73A7F6}"/>
+    <hyperlink ref="J26" r:id="rId99" xr:uid="{8B42B12D-A90C-4379-8789-B18720776A81}"/>
+    <hyperlink ref="J27" r:id="rId100" xr:uid="{4C76A739-5EE1-4B01-9DDE-1A92C9016354}"/>
+    <hyperlink ref="J28" r:id="rId101" xr:uid="{5432EE40-4E69-416B-8541-ECDE5155FC32}"/>
+    <hyperlink ref="J29" r:id="rId102" xr:uid="{7D366EA6-B392-4279-A061-3381C4F7EC61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myapp/www/data sektor technology.xlsx
+++ b/myapp/www/data sektor technology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATCAL VERSI ONLINE\STATCAL FOR IDX\TECHNOLOGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2167B078-8EC8-46BE-92D0-D469272868C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E194593-2194-4B64-84F9-6925B574C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="214">
   <si>
     <t>Sector</t>
   </si>
@@ -640,6 +640,33 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1WYXhYGoV4Cgj47CzBfSUtE_Xe6Nsg6VY/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FiAM148ox_BDu1Z3uwFSSm7RjXyXbmdc/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wjiR1bRBZg7NiDSciufAUWmgGLmKkexe/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QKHNxPbZP_z-DeufCCyf0eEFLTZonib4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14jWMBRWvDnMskqaNRpXbh3KsgHZsaz4z/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>LAPORAN KEUANGAN KONSOLIDASIAN INTERIM 2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_yNcNQeJoXaho186IPeuQ-FFw8C_wS-E/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LTjL8E24Ddur6HTL6VyNR5B9WpZqfu0i/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oDOoqjUQijlTj91tsvYlDFGZ1rNjS8d-/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1MbjIfXJQ4a-5NNTidEp5dLVoJxE0zHtF/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1017,9 +1044,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z44" sqref="Z44:Z45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3642,6 +3669,42 @@
       <c r="H30" s="3">
         <v>7692307700</v>
       </c>
+      <c r="I30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="5">
+        <v>473901489726</v>
+      </c>
+      <c r="M30" s="5">
+        <v>394083871476</v>
+      </c>
+      <c r="N30" s="5">
+        <v>867985361202</v>
+      </c>
+      <c r="O30" s="5">
+        <v>182935487210</v>
+      </c>
+      <c r="P30" s="5">
+        <v>11264743306</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>194200230516</v>
+      </c>
+      <c r="R30" s="5">
+        <v>673785130686</v>
+      </c>
+      <c r="Y30" s="5">
+        <v>-267185086103</v>
+      </c>
+      <c r="Z30" s="5">
+        <v>-36.33</v>
+      </c>
       <c r="AE30" s="3">
         <v>1225</v>
       </c>
@@ -3695,6 +3758,42 @@
       <c r="H31" s="3">
         <v>7692307700</v>
       </c>
+      <c r="I31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="5">
+        <v>837394864046</v>
+      </c>
+      <c r="M31" s="5">
+        <v>297304572871</v>
+      </c>
+      <c r="N31" s="5">
+        <v>1134699436917</v>
+      </c>
+      <c r="O31" s="5">
+        <v>163404160376</v>
+      </c>
+      <c r="P31" s="5">
+        <v>26727086132</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>190131246508</v>
+      </c>
+      <c r="R31" s="5">
+        <v>944568190409</v>
+      </c>
+      <c r="Y31" s="5">
+        <v>4772913020</v>
+      </c>
+      <c r="Z31" s="5">
+        <v>0.77</v>
+      </c>
       <c r="AE31" s="3">
         <v>2760</v>
       </c>
@@ -3748,6 +3847,42 @@
       <c r="H32" s="3">
         <v>1500000000</v>
       </c>
+      <c r="I32" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="5">
+        <v>844310000000</v>
+      </c>
+      <c r="M32" s="5">
+        <v>87409000000</v>
+      </c>
+      <c r="N32" s="5">
+        <v>931719000000</v>
+      </c>
+      <c r="O32" s="5">
+        <v>511720000000</v>
+      </c>
+      <c r="P32" s="5">
+        <v>27566000000</v>
+      </c>
+      <c r="Q32" s="5">
+        <v>539286000000</v>
+      </c>
+      <c r="R32" s="5">
+        <v>392433000000</v>
+      </c>
+      <c r="Y32" s="5">
+        <v>78336000000</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>48.76</v>
+      </c>
       <c r="AE32" s="3">
         <v>1100</v>
       </c>
@@ -3798,6 +3933,42 @@
       <c r="H33" s="3">
         <v>1500000000</v>
       </c>
+      <c r="I33" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="5">
+        <v>834009000000</v>
+      </c>
+      <c r="M33" s="5">
+        <v>86333000000</v>
+      </c>
+      <c r="N33" s="5">
+        <v>920342000000</v>
+      </c>
+      <c r="O33" s="5">
+        <v>544900000000</v>
+      </c>
+      <c r="P33" s="5">
+        <v>37347000000</v>
+      </c>
+      <c r="Q33" s="5">
+        <v>582247000000</v>
+      </c>
+      <c r="R33" s="5">
+        <v>338095000000</v>
+      </c>
+      <c r="Y33" s="5">
+        <v>90384000000</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>52.87</v>
+      </c>
       <c r="AE33" s="3">
         <v>650</v>
       </c>
@@ -3851,6 +4022,42 @@
       <c r="H34" s="3">
         <v>795859095</v>
       </c>
+      <c r="I34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="5">
+        <v>4520410518</v>
+      </c>
+      <c r="M34" s="5">
+        <v>3742556923</v>
+      </c>
+      <c r="N34" s="5">
+        <v>8262967441</v>
+      </c>
+      <c r="O34" s="5">
+        <v>606412008</v>
+      </c>
+      <c r="P34" s="5">
+        <v>474552029</v>
+      </c>
+      <c r="Q34" s="5">
+        <v>1080964037</v>
+      </c>
+      <c r="R34" s="5">
+        <v>7182003404</v>
+      </c>
+      <c r="Y34" s="5">
+        <v>-6677147406</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>-9</v>
+      </c>
       <c r="AE34" s="3">
         <v>110</v>
       </c>
@@ -3904,6 +4111,42 @@
       <c r="H35" s="3">
         <v>795859095</v>
       </c>
+      <c r="I35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="5">
+        <v>7684084037</v>
+      </c>
+      <c r="M35" s="5">
+        <v>6607761800</v>
+      </c>
+      <c r="N35" s="5">
+        <v>14291845837</v>
+      </c>
+      <c r="O35" s="5">
+        <v>223396143</v>
+      </c>
+      <c r="P35" s="5">
+        <v>312394719</v>
+      </c>
+      <c r="Q35" s="5">
+        <v>535790862</v>
+      </c>
+      <c r="R35" s="5">
+        <v>13756054975</v>
+      </c>
+      <c r="Y35" s="5">
+        <v>-10183862379</v>
+      </c>
+      <c r="Z35" s="5">
+        <v>-14</v>
+      </c>
       <c r="AE35" s="3">
         <v>85</v>
       </c>
@@ -3957,6 +4200,42 @@
       <c r="H36" s="3">
         <v>1431125517</v>
       </c>
+      <c r="I36" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="5">
+        <v>55172581839</v>
+      </c>
+      <c r="M36" s="5">
+        <v>168961920655</v>
+      </c>
+      <c r="N36" s="5">
+        <v>224134502494</v>
+      </c>
+      <c r="O36" s="5">
+        <v>72653325590</v>
+      </c>
+      <c r="P36" s="5">
+        <v>2289772864</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>74943098454</v>
+      </c>
+      <c r="R36" s="5">
+        <v>154898771661</v>
+      </c>
+      <c r="Y36" s="5">
+        <v>-30425313029</v>
+      </c>
+      <c r="Z36" s="5">
+        <v>-19.78</v>
+      </c>
       <c r="AE36" s="3">
         <v>161</v>
       </c>
@@ -4010,6 +4289,42 @@
       <c r="H37" s="3">
         <v>1431125517</v>
       </c>
+      <c r="I37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="5">
+        <v>43890413989</v>
+      </c>
+      <c r="M37" s="5">
+        <v>176584769748</v>
+      </c>
+      <c r="N37" s="5">
+        <v>220475183737</v>
+      </c>
+      <c r="O37" s="5">
+        <v>38128300583</v>
+      </c>
+      <c r="P37" s="5">
+        <v>2810797284</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>40939097867</v>
+      </c>
+      <c r="R37" s="5">
+        <v>184548208427</v>
+      </c>
+      <c r="Y37" s="5">
+        <v>-9808612348</v>
+      </c>
+      <c r="Z37" s="5">
+        <v>-7.01</v>
+      </c>
       <c r="AE37" s="3">
         <v>316</v>
       </c>
@@ -4063,6 +4378,12 @@
       <c r="H38" s="3">
         <v>1256300000</v>
       </c>
+      <c r="I38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="AE38" s="3">
         <v>4010</v>
       </c>
@@ -4113,6 +4434,12 @@
       <c r="H39" s="3">
         <v>1256300000</v>
       </c>
+      <c r="I39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="AE39" s="3">
         <v>9400</v>
       </c>
@@ -4166,6 +4493,12 @@
       <c r="H40" s="3">
         <v>2359355118</v>
       </c>
+      <c r="I40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="AE40" s="3">
         <v>280</v>
       </c>
@@ -4219,6 +4552,12 @@
       <c r="H41" s="3">
         <v>2359355118</v>
       </c>
+      <c r="I41" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="AE41" s="3">
         <v>645</v>
       </c>
@@ -4272,6 +4611,12 @@
       <c r="H42" s="3">
         <v>2383745900</v>
       </c>
+      <c r="I42" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="AE42" s="3">
         <v>59050</v>
       </c>
@@ -4322,6 +4667,12 @@
       <c r="H43" s="3">
         <v>2383745900</v>
       </c>
+      <c r="I43" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="AE43" s="3">
         <v>51200</v>
       </c>
@@ -4375,6 +4726,42 @@
       <c r="H44" s="3">
         <v>2020250000</v>
       </c>
+      <c r="I44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="5">
+        <v>583322000000</v>
+      </c>
+      <c r="M44" s="5">
+        <v>2140051000000</v>
+      </c>
+      <c r="N44" s="5">
+        <v>2723373000000</v>
+      </c>
+      <c r="O44" s="5">
+        <v>681223000000</v>
+      </c>
+      <c r="P44" s="5">
+        <v>570809000000</v>
+      </c>
+      <c r="Q44" s="5">
+        <v>1252032000000</v>
+      </c>
+      <c r="R44" s="5">
+        <v>1471341000000</v>
+      </c>
+      <c r="Y44" s="5">
+        <v>253265000000</v>
+      </c>
+      <c r="Z44" s="5">
+        <v>125</v>
+      </c>
       <c r="AE44" s="3">
         <v>21250</v>
       </c>
@@ -4424,6 +4811,42 @@
       </c>
       <c r="H45" s="3">
         <v>2020250000</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="5">
+        <v>542307000000</v>
+      </c>
+      <c r="M45" s="5">
+        <v>1063635000000</v>
+      </c>
+      <c r="N45" s="5">
+        <v>1605942000000</v>
+      </c>
+      <c r="O45" s="5">
+        <v>324141000000</v>
+      </c>
+      <c r="P45" s="5">
+        <v>70371000000</v>
+      </c>
+      <c r="Q45" s="5">
+        <v>394512000000</v>
+      </c>
+      <c r="R45" s="5">
+        <v>1211430000000</v>
+      </c>
+      <c r="Y45" s="5">
+        <v>186171000000</v>
+      </c>
+      <c r="Z45" s="5">
+        <v>92</v>
       </c>
       <c r="AE45" s="3">
         <v>25625</v>
@@ -6795,6 +7218,22 @@
     <hyperlink ref="J27" r:id="rId100" xr:uid="{4C76A739-5EE1-4B01-9DDE-1A92C9016354}"/>
     <hyperlink ref="J28" r:id="rId101" xr:uid="{5432EE40-4E69-416B-8541-ECDE5155FC32}"/>
     <hyperlink ref="J29" r:id="rId102" xr:uid="{7D366EA6-B392-4279-A061-3381C4F7EC61}"/>
+    <hyperlink ref="J30" r:id="rId103" xr:uid="{014076FF-7E39-4D2C-80A6-6196C10B7C07}"/>
+    <hyperlink ref="J31" r:id="rId104" xr:uid="{A43B8BE0-FFCF-4AC3-ACE0-6226E0801E36}"/>
+    <hyperlink ref="J32" r:id="rId105" xr:uid="{2F944D64-F665-4880-A0F5-CF03A4457098}"/>
+    <hyperlink ref="J33" r:id="rId106" xr:uid="{3D55C268-7594-454A-9B5A-1368A3A519D8}"/>
+    <hyperlink ref="J34" r:id="rId107" xr:uid="{D266F08A-3ACC-48ED-B45F-D682FD8B40C4}"/>
+    <hyperlink ref="J35" r:id="rId108" xr:uid="{0932B505-62BC-4645-95E8-E4491872C075}"/>
+    <hyperlink ref="J36" r:id="rId109" xr:uid="{D6F4D786-80A6-4F78-8203-D05E17043702}"/>
+    <hyperlink ref="J37" r:id="rId110" xr:uid="{C07B9D13-1025-4EFC-9F2E-6FFC50D52002}"/>
+    <hyperlink ref="J38" r:id="rId111" xr:uid="{A8D97C29-C6F1-4421-AE23-3FA660630857}"/>
+    <hyperlink ref="J39" r:id="rId112" xr:uid="{9093010A-6C08-4DC3-9FC4-EAF4F27BD47E}"/>
+    <hyperlink ref="J40" r:id="rId113" xr:uid="{CC692780-6F2D-45B4-8BEE-FA56DFEBFD93}"/>
+    <hyperlink ref="J41" r:id="rId114" xr:uid="{CF835E92-2A65-43B2-B1D9-2B325301E27D}"/>
+    <hyperlink ref="J42" r:id="rId115" xr:uid="{E8516248-75CA-477D-A55A-FAEB4E7DACE3}"/>
+    <hyperlink ref="J43" r:id="rId116" xr:uid="{301D2C86-7DB2-48DB-81A0-2CFF44BAD476}"/>
+    <hyperlink ref="J44" r:id="rId117" xr:uid="{474B494F-50E2-467B-A02B-B3B1FD1ADDBF}"/>
+    <hyperlink ref="J45" r:id="rId118" xr:uid="{59FB1F76-3F4E-40A8-8088-C360613943F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/myapp/www/data sektor technology.xlsx
+++ b/myapp/www/data sektor technology.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STATCAL VERSI ONLINE\STATCAL FOR IDX\TECHNOLOGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E194593-2194-4B64-84F9-6925B574C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA3B339-0C97-4BDD-9480-E2460FB05EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="236">
   <si>
     <t>Sector</t>
   </si>
@@ -667,6 +667,72 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1MbjIfXJQ4a-5NNTidEp5dLVoJxE0zHtF/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>CONSOLIDATED FINANCIAL STATEMENTS 2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eQvKI7WNP13kOwr6cZw5dInPhQX2gYFT/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lj8z3emcUX9X1r98JMeX1Jw3XzWB3UkP/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Financial Statements 2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ngsyLOvN_6aNX8VxWhFoerYT03Acxxvb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TV5_aK0xL9Lghm9XBo0PTFN4evSqIsqN/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19eXMjvzJ_SjjQYwuuqogeh4jBi8ts4ME/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/14WQQvxEiZPjEPfHRw_RBsEaEaZaPyG-4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1nPUJkTYQQN9zyX7P5KdIAFrcVJuw4_pL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Consolidated Financial Statement 2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1eKpXlSu80F_H_BHZ8jU4eMdJ4OBe-S_a/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/11ZF24Xp4lTB5eMd7IHaLcg3j2CJSxqmb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Consolidated financial statements 2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wT0jPGS2jC6gboueGdJYUGvJjLZ2Dmi3/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1um7KtX9D13ROVYgwc0W5aBUScth7Z9ex/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_As4VTQGaRqXXZSst03zn0rPrsUYABiL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tU_Wb6Rjk8qqIzwXh4VvUyiQg7JIEdRw/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>FINANCIAL STATEMENTS 2023</t>
+  </si>
+  <si>
+    <t>Annual Report &amp; Sustainability Report 2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-veN52-3P9_Due83lGhJwga8CjpiHdr9/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Document not Found in IDX</t>
   </si>
 </sst>
 </file>
@@ -1044,9 +1110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z44" sqref="Z44:Z45"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1088,7 +1154,7 @@
     <col min="41" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,8 +1272,11 @@
       <c r="AM1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="AN1" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1558,7 +1627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1740,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1776,7 +1845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1883,7 +1952,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1930,8 +1999,11 @@
       <c r="AM8" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="AN8" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1984,8 +2056,11 @@
       <c r="AM9" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="AN9" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2074,7 +2149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2163,7 +2238,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2255,7 +2330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2347,7 +2422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2437,7 +2512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2527,7 +2602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2573,8 +2648,11 @@
       <c r="AM16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="AN16" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2617,8 +2695,11 @@
       <c r="AM17" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+      <c r="AN17" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2707,7 +2788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2796,7 +2877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -2885,7 +2966,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -2974,7 +3055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3060,7 +3141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3149,7 +3230,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3220,7 +3301,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3291,7 +3372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3380,7 +3461,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3469,7 +3550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3555,7 +3636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3644,7 +3725,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>7</v>
       </c>
@@ -3733,7 +3814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
@@ -3822,7 +3903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>7</v>
       </c>
@@ -4384,6 +4465,37 @@
       <c r="J38" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="K38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="5">
+        <v>65053037359</v>
+      </c>
+      <c r="M38" s="5">
+        <v>9017219953</v>
+      </c>
+      <c r="N38" s="5">
+        <v>74070257312</v>
+      </c>
+      <c r="O38" s="5">
+        <v>5213267254</v>
+      </c>
+      <c r="P38" s="5">
+        <f>Q38-O38</f>
+        <v>4386748667</v>
+      </c>
+      <c r="Q38" s="5">
+        <v>9600015921</v>
+      </c>
+      <c r="R38" s="5">
+        <v>64470241391</v>
+      </c>
+      <c r="Y38" s="5">
+        <v>-1214563233</v>
+      </c>
+      <c r="Z38" s="5">
+        <v>-0.95</v>
+      </c>
       <c r="AE38" s="3">
         <v>4010</v>
       </c>
@@ -4440,6 +4552,37 @@
       <c r="J39" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="K39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="5">
+        <v>65304262728</v>
+      </c>
+      <c r="M39" s="5">
+        <v>9139252667</v>
+      </c>
+      <c r="N39" s="5">
+        <v>74443515395</v>
+      </c>
+      <c r="O39" s="5">
+        <v>4670770685</v>
+      </c>
+      <c r="P39" s="5">
+        <f>Q39-O39</f>
+        <v>4087940086</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>8758710771</v>
+      </c>
+      <c r="R39" s="5">
+        <v>65684804624</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>612548071</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>0.6</v>
+      </c>
       <c r="AE39" s="3">
         <v>9400</v>
       </c>
@@ -4499,6 +4642,36 @@
       <c r="J40" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="K40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="5">
+        <v>262832995400</v>
+      </c>
+      <c r="M40" s="5">
+        <v>1301396619146</v>
+      </c>
+      <c r="N40" s="5">
+        <v>1564229614546</v>
+      </c>
+      <c r="O40" s="5">
+        <v>222841096106</v>
+      </c>
+      <c r="P40" s="5">
+        <v>598742544193</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>821583640299</v>
+      </c>
+      <c r="R40" s="5">
+        <v>742645974247</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>58256721105</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>25.96</v>
+      </c>
       <c r="AE40" s="3">
         <v>280</v>
       </c>
@@ -4558,6 +4731,36 @@
       <c r="J41" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="K41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="5">
+        <v>219118682228</v>
+      </c>
+      <c r="M41" s="5">
+        <v>1188615711558</v>
+      </c>
+      <c r="N41" s="5">
+        <v>1407734393786</v>
+      </c>
+      <c r="O41" s="5">
+        <v>131024915221</v>
+      </c>
+      <c r="P41" s="5">
+        <v>663982480493</v>
+      </c>
+      <c r="Q41" s="5">
+        <v>795007395714</v>
+      </c>
+      <c r="R41" s="5">
+        <v>612726998072</v>
+      </c>
+      <c r="Y41" s="5">
+        <v>58446226243</v>
+      </c>
+      <c r="Z41" s="5">
+        <v>28.29</v>
+      </c>
       <c r="AE41" s="3">
         <v>645</v>
       </c>
@@ -4617,6 +4820,36 @@
       <c r="J42" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="K42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="5">
+        <v>691453000000</v>
+      </c>
+      <c r="M42" s="5">
+        <v>2985031000000</v>
+      </c>
+      <c r="N42" s="5">
+        <v>3676484000000</v>
+      </c>
+      <c r="O42" s="5">
+        <v>517732000000</v>
+      </c>
+      <c r="P42" s="5">
+        <v>951802000000</v>
+      </c>
+      <c r="Q42" s="5">
+        <v>1469534000000</v>
+      </c>
+      <c r="R42" s="5">
+        <v>2206950000000</v>
+      </c>
+      <c r="Y42" s="5">
+        <v>514487000000</v>
+      </c>
+      <c r="Z42" s="5">
+        <v>216</v>
+      </c>
       <c r="AE42" s="3">
         <v>59050</v>
       </c>
@@ -4673,6 +4906,36 @@
       <c r="J43" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="K43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="5">
+        <v>441994000000</v>
+      </c>
+      <c r="M43" s="5">
+        <v>2775570000000</v>
+      </c>
+      <c r="N43" s="5">
+        <v>3217564000000</v>
+      </c>
+      <c r="O43" s="5">
+        <v>468215000000</v>
+      </c>
+      <c r="P43" s="5">
+        <v>1164152000000</v>
+      </c>
+      <c r="Q43" s="5">
+        <v>1632367000000</v>
+      </c>
+      <c r="R43" s="5">
+        <v>1585197000000</v>
+      </c>
+      <c r="Y43" s="5">
+        <v>367842000000</v>
+      </c>
+      <c r="Z43" s="5">
+        <v>154</v>
+      </c>
       <c r="AE43" s="3">
         <v>51200</v>
       </c>
@@ -4901,6 +5164,42 @@
       <c r="H46" s="3">
         <v>1333334556</v>
       </c>
+      <c r="I46" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="5">
+        <v>402244526516</v>
+      </c>
+      <c r="M46" s="5">
+        <v>88797202678</v>
+      </c>
+      <c r="N46" s="5">
+        <v>491041729194</v>
+      </c>
+      <c r="O46" s="5">
+        <v>193998671061</v>
+      </c>
+      <c r="P46" s="5">
+        <v>7594279585</v>
+      </c>
+      <c r="Q46" s="5">
+        <v>201592950646</v>
+      </c>
+      <c r="R46" s="5">
+        <v>289448778548</v>
+      </c>
+      <c r="Y46" s="5">
+        <v>32952891502</v>
+      </c>
+      <c r="Z46" s="5">
+        <v>24.71</v>
+      </c>
       <c r="AE46" s="3">
         <v>368</v>
       </c>
@@ -4954,6 +5253,42 @@
       <c r="H47" s="3">
         <v>1333334556</v>
       </c>
+      <c r="I47" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="5">
+        <v>623252108907</v>
+      </c>
+      <c r="M47" s="5">
+        <v>83977709622</v>
+      </c>
+      <c r="N47" s="5">
+        <v>707229818529</v>
+      </c>
+      <c r="O47" s="5">
+        <v>432284232283</v>
+      </c>
+      <c r="P47" s="5">
+        <v>6656257000</v>
+      </c>
+      <c r="Q47" s="5">
+        <v>438940489283</v>
+      </c>
+      <c r="R47" s="5">
+        <v>268289329246</v>
+      </c>
+      <c r="Y47" s="5">
+        <v>78627417442</v>
+      </c>
+      <c r="Z47" s="5">
+        <v>58.97</v>
+      </c>
       <c r="AE47" s="3">
         <v>730</v>
       </c>
@@ -5007,6 +5342,42 @@
       <c r="H48" s="3">
         <v>2000144838</v>
       </c>
+      <c r="I48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="5">
+        <v>84832680493</v>
+      </c>
+      <c r="M48" s="5">
+        <v>39376343673</v>
+      </c>
+      <c r="N48" s="5">
+        <v>124209024166</v>
+      </c>
+      <c r="O48" s="5">
+        <v>24279360333</v>
+      </c>
+      <c r="P48" s="5">
+        <v>4613785584</v>
+      </c>
+      <c r="Q48" s="5">
+        <v>28893145917</v>
+      </c>
+      <c r="R48" s="5">
+        <v>95315878249</v>
+      </c>
+      <c r="Y48" s="5">
+        <v>6940325093</v>
+      </c>
+      <c r="Z48" s="5">
+        <v>3.47</v>
+      </c>
       <c r="AE48" s="3">
         <v>191</v>
       </c>
@@ -5060,6 +5431,42 @@
       <c r="H49" s="3">
         <v>2000144838</v>
       </c>
+      <c r="I49" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="5">
+        <v>73787882640</v>
+      </c>
+      <c r="M49" s="5">
+        <v>35338411356</v>
+      </c>
+      <c r="N49" s="5">
+        <v>109126293996</v>
+      </c>
+      <c r="O49" s="5">
+        <v>14772380743</v>
+      </c>
+      <c r="P49" s="5">
+        <v>4850606620</v>
+      </c>
+      <c r="Q49" s="5">
+        <v>19622987363</v>
+      </c>
+      <c r="R49" s="5">
+        <v>89503306633</v>
+      </c>
+      <c r="Y49" s="5">
+        <v>11885663594</v>
+      </c>
+      <c r="Z49" s="5">
+        <v>5.94</v>
+      </c>
       <c r="AE49" s="3">
         <v>540</v>
       </c>
@@ -5113,6 +5520,42 @@
       <c r="H50" s="3">
         <v>103121636167</v>
       </c>
+      <c r="I50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="5">
+        <v>20088780546000</v>
+      </c>
+      <c r="M50" s="5">
+        <v>6035996582000</v>
+      </c>
+      <c r="N50" s="5">
+        <v>26124777128000</v>
+      </c>
+      <c r="O50" s="5">
+        <v>714125517000</v>
+      </c>
+      <c r="P50" s="5">
+        <v>77903495000</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>792029012000</v>
+      </c>
+      <c r="R50" s="5">
+        <v>25332748116000</v>
+      </c>
+      <c r="Y50" s="5">
+        <v>-1377543709000</v>
+      </c>
+      <c r="Z50" s="5">
+        <v>-13.24</v>
+      </c>
       <c r="AE50" s="3">
         <v>306</v>
       </c>
@@ -5166,6 +5609,42 @@
       <c r="H51" s="3">
         <v>103121636167</v>
       </c>
+      <c r="I51" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="5">
+        <v>22005287475000</v>
+      </c>
+      <c r="M51" s="5">
+        <v>5401117348000</v>
+      </c>
+      <c r="N51" s="5">
+        <v>27406404823000</v>
+      </c>
+      <c r="O51" s="5">
+        <v>808855817000</v>
+      </c>
+      <c r="P51" s="5">
+        <v>99065549000</v>
+      </c>
+      <c r="Q51" s="5">
+        <v>907921366000</v>
+      </c>
+      <c r="R51" s="5">
+        <v>26498483457000</v>
+      </c>
+      <c r="Y51" s="5">
+        <v>1977593515000</v>
+      </c>
+      <c r="Z51" s="5">
+        <v>19.25</v>
+      </c>
       <c r="AE51" s="3">
         <v>515</v>
       </c>
@@ -5219,6 +5698,42 @@
       <c r="H52" s="3">
         <v>983557875</v>
       </c>
+      <c r="I52" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="5">
+        <v>35563718209</v>
+      </c>
+      <c r="M52" s="5">
+        <v>60872469136</v>
+      </c>
+      <c r="N52" s="5">
+        <v>96436187345</v>
+      </c>
+      <c r="O52" s="5">
+        <v>7909410339</v>
+      </c>
+      <c r="P52" s="5">
+        <v>19400628515</v>
+      </c>
+      <c r="Q52" s="5">
+        <v>27310038854</v>
+      </c>
+      <c r="R52" s="5">
+        <v>69126148491</v>
+      </c>
+      <c r="Y52" s="5">
+        <v>-4752767883</v>
+      </c>
+      <c r="Z52" s="5">
+        <v>-8.08</v>
+      </c>
       <c r="AE52" s="3">
         <v>206</v>
       </c>
@@ -5272,6 +5787,42 @@
       <c r="H53" s="3">
         <v>983557875</v>
       </c>
+      <c r="I53" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="5">
+        <v>55321668950</v>
+      </c>
+      <c r="M53" s="5">
+        <v>31759762943</v>
+      </c>
+      <c r="N53" s="5">
+        <v>87081431893</v>
+      </c>
+      <c r="O53" s="5">
+        <v>2554275512</v>
+      </c>
+      <c r="P53" s="5">
+        <v>9854683840</v>
+      </c>
+      <c r="Q53" s="5">
+        <v>12408959352</v>
+      </c>
+      <c r="R53" s="5">
+        <v>74672472541</v>
+      </c>
+      <c r="Y53" s="5">
+        <v>3440159339</v>
+      </c>
+      <c r="Z53" s="5">
+        <v>3.47</v>
+      </c>
       <c r="AE53" s="3">
         <v>328</v>
       </c>
@@ -5325,6 +5876,42 @@
       <c r="H54" s="3">
         <v>1042500000</v>
       </c>
+      <c r="I54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="5">
+        <v>26170441340</v>
+      </c>
+      <c r="M54" s="5">
+        <v>31889918836</v>
+      </c>
+      <c r="N54" s="5">
+        <v>58060360176</v>
+      </c>
+      <c r="O54" s="5">
+        <v>1389976394</v>
+      </c>
+      <c r="P54" s="5">
+        <v>558458557</v>
+      </c>
+      <c r="Q54" s="5">
+        <v>1948434951</v>
+      </c>
+      <c r="R54" s="5">
+        <v>56111925225</v>
+      </c>
+      <c r="Y54" s="5">
+        <v>4458357156</v>
+      </c>
+      <c r="Z54" s="5">
+        <v>4.2699999999999996</v>
+      </c>
       <c r="AE54" s="3">
         <v>232</v>
       </c>
@@ -5378,6 +5965,42 @@
       <c r="H55" s="3">
         <v>1042500000</v>
       </c>
+      <c r="I55" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="5">
+        <v>36005603480</v>
+      </c>
+      <c r="M55" s="5">
+        <v>21132084317</v>
+      </c>
+      <c r="N55" s="5">
+        <v>57137687797</v>
+      </c>
+      <c r="O55" s="5">
+        <v>1045503539</v>
+      </c>
+      <c r="P55" s="5">
+        <v>360442592</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>1405946131</v>
+      </c>
+      <c r="R55" s="5">
+        <v>55731741666</v>
+      </c>
+      <c r="Y55" s="5">
+        <v>4776725716</v>
+      </c>
+      <c r="Z55" s="5">
+        <v>4.57</v>
+      </c>
       <c r="AE55" s="3">
         <v>250</v>
       </c>
@@ -5431,6 +6054,42 @@
       <c r="H56" s="3">
         <v>11938622394</v>
       </c>
+      <c r="I56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="5">
+        <v>603819875283</v>
+      </c>
+      <c r="M56" s="5">
+        <v>522835201558</v>
+      </c>
+      <c r="N56" s="5">
+        <v>1126655076841</v>
+      </c>
+      <c r="O56" s="5">
+        <v>342982125328</v>
+      </c>
+      <c r="P56" s="5">
+        <v>68509406418</v>
+      </c>
+      <c r="Q56" s="5">
+        <v>411491531746</v>
+      </c>
+      <c r="R56" s="5">
+        <v>715163545095</v>
+      </c>
+      <c r="Y56" s="5">
+        <v>68504864216</v>
+      </c>
+      <c r="Z56" s="5">
+        <v>5.8</v>
+      </c>
       <c r="AE56" s="3">
         <v>197</v>
       </c>
@@ -5484,6 +6143,42 @@
       <c r="H57" s="3">
         <v>11938622394</v>
       </c>
+      <c r="I57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="5">
+        <v>534459293438</v>
+      </c>
+      <c r="M57" s="5">
+        <v>350691424786</v>
+      </c>
+      <c r="N57" s="5">
+        <v>885150718224</v>
+      </c>
+      <c r="O57" s="5">
+        <v>212947433071</v>
+      </c>
+      <c r="P57" s="5">
+        <v>45756799275</v>
+      </c>
+      <c r="Q57" s="5">
+        <v>258704232346</v>
+      </c>
+      <c r="R57" s="5">
+        <v>626446485878</v>
+      </c>
+      <c r="Y57" s="5">
+        <v>48123654721</v>
+      </c>
+      <c r="Z57" s="5">
+        <v>3.47</v>
+      </c>
       <c r="AE57" s="3">
         <v>1600</v>
       </c>
@@ -5537,6 +6232,42 @@
       <c r="H58" s="3">
         <v>1140573267220</v>
       </c>
+      <c r="I58" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="5">
+        <v>33617291000000</v>
+      </c>
+      <c r="M58" s="5">
+        <v>20479965000000</v>
+      </c>
+      <c r="N58" s="5">
+        <v>54097256000000</v>
+      </c>
+      <c r="O58" s="5">
+        <v>12822544000000</v>
+      </c>
+      <c r="P58" s="5">
+        <v>5554712000000</v>
+      </c>
+      <c r="Q58" s="5">
+        <v>18377256000000</v>
+      </c>
+      <c r="R58" s="5">
+        <v>35720000000000</v>
+      </c>
+      <c r="Y58" s="5">
+        <v>-90518726000000</v>
+      </c>
+      <c r="Z58" s="5">
+        <v>-85</v>
+      </c>
       <c r="AE58" s="3">
         <v>147</v>
       </c>
@@ -5590,6 +6321,42 @@
       <c r="H59" s="3">
         <v>1140573267220</v>
       </c>
+      <c r="I59" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="5">
+        <v>34180478000000</v>
+      </c>
+      <c r="M59" s="5">
+        <v>105036092000000</v>
+      </c>
+      <c r="N59" s="5">
+        <v>139216570000000</v>
+      </c>
+      <c r="O59" s="5">
+        <v>12162456000000</v>
+      </c>
+      <c r="P59" s="5">
+        <v>4330770000000</v>
+      </c>
+      <c r="Q59" s="5">
+        <v>16493226000000</v>
+      </c>
+      <c r="R59" s="5">
+        <v>122723344000000</v>
+      </c>
+      <c r="Y59" s="5">
+        <v>-40408492000000</v>
+      </c>
+      <c r="Z59" s="5">
+        <v>-39</v>
+      </c>
       <c r="AE59" s="3">
         <v>442</v>
       </c>
@@ -5643,6 +6410,42 @@
       <c r="H60" s="3">
         <v>5840126500</v>
       </c>
+      <c r="I60" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="5">
+        <v>663062145701</v>
+      </c>
+      <c r="M60" s="5">
+        <v>276699052792</v>
+      </c>
+      <c r="N60" s="5">
+        <v>939761198493</v>
+      </c>
+      <c r="O60" s="5">
+        <v>373879722770</v>
+      </c>
+      <c r="P60" s="5">
+        <v>32067088399</v>
+      </c>
+      <c r="Q60" s="5">
+        <v>405946811169</v>
+      </c>
+      <c r="R60" s="5">
+        <v>533814387324</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>127042929881</v>
+      </c>
+      <c r="Z60" s="5">
+        <v>21</v>
+      </c>
       <c r="AE60" s="3">
         <v>252</v>
       </c>
@@ -5696,6 +6499,42 @@
       <c r="H61" s="3">
         <v>5840126500</v>
       </c>
+      <c r="I61" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="5">
+        <v>853982815747</v>
+      </c>
+      <c r="M61" s="5">
+        <v>236769864399</v>
+      </c>
+      <c r="N61" s="5">
+        <v>1090752680146</v>
+      </c>
+      <c r="O61" s="5">
+        <v>554608989800</v>
+      </c>
+      <c r="P61" s="5">
+        <v>38897562719</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>593506552519</v>
+      </c>
+      <c r="R61" s="5">
+        <v>497246127627</v>
+      </c>
+      <c r="Y61" s="5">
+        <v>89932553832</v>
+      </c>
+      <c r="Z61" s="5">
+        <v>17</v>
+      </c>
       <c r="AE61" s="3">
         <v>350</v>
       </c>
@@ -5749,6 +6588,42 @@
       <c r="H62" s="3">
         <v>131000399381</v>
       </c>
+      <c r="I62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="5">
+        <v>5912759000000</v>
+      </c>
+      <c r="M62" s="5">
+        <v>6928173000000</v>
+      </c>
+      <c r="N62" s="5">
+        <v>12840932000000</v>
+      </c>
+      <c r="O62" s="5">
+        <v>4054201000000</v>
+      </c>
+      <c r="P62" s="5">
+        <v>944963000000</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>4999164000000</v>
+      </c>
+      <c r="R62" s="5">
+        <v>7841768000000</v>
+      </c>
+      <c r="Y62" s="5">
+        <v>-3681262000000</v>
+      </c>
+      <c r="Z62" s="5">
+        <v>-31</v>
+      </c>
       <c r="AE62" s="3">
         <v>496</v>
       </c>
@@ -5802,6 +6677,42 @@
       <c r="H63" s="3">
         <v>131000399381</v>
       </c>
+      <c r="I63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="5">
+        <v>6556919000000</v>
+      </c>
+      <c r="M63" s="5">
+        <v>7519875000000</v>
+      </c>
+      <c r="N63" s="5">
+        <v>14076794000000</v>
+      </c>
+      <c r="O63" s="5">
+        <v>2718282000000</v>
+      </c>
+      <c r="P63" s="5">
+        <v>876696000000</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>3594978000000</v>
+      </c>
+      <c r="R63" s="5">
+        <v>10481816000000</v>
+      </c>
+      <c r="Y63" s="5">
+        <v>-5536305000000</v>
+      </c>
+      <c r="Z63" s="5">
+        <v>-53</v>
+      </c>
       <c r="AE63" s="3">
         <v>510</v>
       </c>
@@ -5855,6 +6766,42 @@
       <c r="H64" s="3">
         <v>2157000000</v>
       </c>
+      <c r="I64" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="5">
+        <v>22365032996</v>
+      </c>
+      <c r="M64" s="5">
+        <v>22099820549</v>
+      </c>
+      <c r="N64" s="5">
+        <v>44464853545</v>
+      </c>
+      <c r="O64" s="5">
+        <v>2392532278</v>
+      </c>
+      <c r="P64" s="5">
+        <v>514978000</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>2907510278</v>
+      </c>
+      <c r="R64" s="5">
+        <v>41557343267</v>
+      </c>
+      <c r="Y64" s="5">
+        <v>-4052839911</v>
+      </c>
+      <c r="Z64" s="5">
+        <v>-1.88</v>
+      </c>
       <c r="AE64" s="3">
         <v>52</v>
       </c>
@@ -5908,6 +6855,42 @@
       <c r="H65" s="3">
         <v>2157000000</v>
       </c>
+      <c r="I65" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="5">
+        <v>38100844958</v>
+      </c>
+      <c r="M65" s="5">
+        <v>12327158340</v>
+      </c>
+      <c r="N65" s="5">
+        <v>50428003298</v>
+      </c>
+      <c r="O65" s="5">
+        <v>3864234417</v>
+      </c>
+      <c r="P65" s="5">
+        <v>984670263</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>4848904680</v>
+      </c>
+      <c r="R65" s="5">
+        <v>45579098618</v>
+      </c>
+      <c r="Y65" s="5">
+        <v>1806830970</v>
+      </c>
+      <c r="Z65" s="5">
+        <v>1.03</v>
+      </c>
       <c r="AE65" s="3">
         <v>82</v>
       </c>
@@ -5961,6 +6944,42 @@
       <c r="H66" s="3">
         <v>2031643057</v>
       </c>
+      <c r="I66" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" s="5">
+        <v>117860455578</v>
+      </c>
+      <c r="M66" s="5">
+        <v>109911341426</v>
+      </c>
+      <c r="N66" s="5">
+        <v>227771797004</v>
+      </c>
+      <c r="O66" s="5">
+        <v>80312839247</v>
+      </c>
+      <c r="P66" s="5">
+        <v>27579820224</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>107892659471</v>
+      </c>
+      <c r="R66" s="5">
+        <v>119879137533</v>
+      </c>
+      <c r="Y66" s="5">
+        <v>17095918870</v>
+      </c>
+      <c r="Z66" s="5">
+        <v>8.39</v>
+      </c>
       <c r="AE66" s="3">
         <v>330</v>
       </c>
@@ -5989,7 +7008,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:39" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
@@ -6014,6 +7033,42 @@
       <c r="H67" s="3">
         <v>2031643057</v>
       </c>
+      <c r="I67" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="5">
+        <v>70558128647</v>
+      </c>
+      <c r="M67" s="5">
+        <v>49173507822</v>
+      </c>
+      <c r="N67" s="5">
+        <v>119731636469</v>
+      </c>
+      <c r="O67" s="5">
+        <v>43547755756</v>
+      </c>
+      <c r="P67" s="5">
+        <v>21484532643</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>65032288399</v>
+      </c>
+      <c r="R67" s="5">
+        <v>54699348070</v>
+      </c>
+      <c r="Y67" s="5">
+        <v>9639739921</v>
+      </c>
+      <c r="Z67" s="5">
+        <v>14.12</v>
+      </c>
       <c r="AM67" s="2"/>
     </row>
     <row r="68" spans="1:39" ht="29" x14ac:dyDescent="0.35">
@@ -6678,6 +7733,42 @@
       <c r="H84" s="3">
         <v>3139416200</v>
       </c>
+      <c r="I84" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" s="5">
+        <v>2858828818009</v>
+      </c>
+      <c r="M84" s="5">
+        <v>224298081489</v>
+      </c>
+      <c r="N84" s="5">
+        <v>3083126899498</v>
+      </c>
+      <c r="O84" s="5">
+        <v>1038493886480</v>
+      </c>
+      <c r="P84" s="5">
+        <v>99278837245</v>
+      </c>
+      <c r="Q84" s="5">
+        <v>1137772723725</v>
+      </c>
+      <c r="R84" s="5">
+        <v>1945354175773</v>
+      </c>
+      <c r="Y84" s="5">
+        <v>447725741887</v>
+      </c>
+      <c r="Z84" s="5">
+        <v>163</v>
+      </c>
       <c r="AE84" s="3">
         <v>1690</v>
       </c>
@@ -6706,7 +7797,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:39" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
@@ -6731,6 +7822,42 @@
       <c r="H85" s="3">
         <v>3139416200</v>
       </c>
+      <c r="I85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="5">
+        <v>2083069683865</v>
+      </c>
+      <c r="M85" s="5">
+        <v>249260823767</v>
+      </c>
+      <c r="N85" s="5">
+        <v>2332330507632</v>
+      </c>
+      <c r="O85" s="5">
+        <v>1020353268994</v>
+      </c>
+      <c r="P85" s="5">
+        <v>74584407171</v>
+      </c>
+      <c r="Q85" s="5">
+        <v>1094937676165</v>
+      </c>
+      <c r="R85" s="5">
+        <v>1237392831467</v>
+      </c>
+      <c r="Y85" s="5">
+        <v>398942031768</v>
+      </c>
+      <c r="Z85" s="5">
+        <v>150</v>
+      </c>
       <c r="AL85"/>
       <c r="AM85"/>
     </row>
@@ -6927,6 +8054,42 @@
       <c r="H92" s="3">
         <v>1428571400</v>
       </c>
+      <c r="I92" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" s="5">
+        <v>811621410682</v>
+      </c>
+      <c r="M92" s="5">
+        <v>201811692518</v>
+      </c>
+      <c r="N92" s="5">
+        <v>1013433103200</v>
+      </c>
+      <c r="O92" s="5">
+        <v>130742163373</v>
+      </c>
+      <c r="P92" s="5">
+        <v>6287194950</v>
+      </c>
+      <c r="Q92" s="5">
+        <v>137029358323</v>
+      </c>
+      <c r="R92" s="5">
+        <v>876403744877</v>
+      </c>
+      <c r="Y92" s="5">
+        <v>-1272956591493</v>
+      </c>
+      <c r="Z92" s="5">
+        <v>-912.65</v>
+      </c>
       <c r="AE92" s="3">
         <v>960</v>
       </c>
@@ -6980,6 +8143,42 @@
       <c r="H93" s="3">
         <v>1428571400</v>
       </c>
+      <c r="I93" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" s="5">
+        <v>2122401225916</v>
+      </c>
+      <c r="M93" s="5">
+        <v>215595722698</v>
+      </c>
+      <c r="N93" s="5">
+        <v>2337996948614</v>
+      </c>
+      <c r="O93" s="5">
+        <v>176810002246</v>
+      </c>
+      <c r="P93" s="5">
+        <v>11522723526</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>188332725772</v>
+      </c>
+      <c r="R93" s="5">
+        <v>2149664222842</v>
+      </c>
+      <c r="Y93" s="5">
+        <v>8430213951</v>
+      </c>
+      <c r="Z93" s="5">
+        <v>3.03</v>
+      </c>
       <c r="AE93" s="3">
         <v>2160</v>
       </c>
@@ -7033,6 +8232,42 @@
       <c r="H94" s="3">
         <v>715749640</v>
       </c>
+      <c r="I94" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L94" s="5">
+        <v>109432399768</v>
+      </c>
+      <c r="M94" s="5">
+        <v>65174130490</v>
+      </c>
+      <c r="N94" s="5">
+        <v>174606530258</v>
+      </c>
+      <c r="O94" s="5">
+        <v>28611824746</v>
+      </c>
+      <c r="P94" s="5">
+        <v>9399989967</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>38011814713</v>
+      </c>
+      <c r="R94" s="5">
+        <v>136594715545</v>
+      </c>
+      <c r="Y94" s="5">
+        <v>161145290</v>
+      </c>
+      <c r="Z94" s="5">
+        <v>0.26</v>
+      </c>
       <c r="AE94" s="3">
         <v>132</v>
       </c>
@@ -7085,6 +8320,42 @@
       </c>
       <c r="H95" s="3">
         <v>715749640</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L95" s="5">
+        <v>103198353142</v>
+      </c>
+      <c r="M95" s="5">
+        <v>71538958218</v>
+      </c>
+      <c r="N95" s="5">
+        <v>174737311360</v>
+      </c>
+      <c r="O95" s="5">
+        <v>29155171262</v>
+      </c>
+      <c r="P95" s="5">
+        <v>9212138279</v>
+      </c>
+      <c r="Q95" s="5">
+        <v>38367309541</v>
+      </c>
+      <c r="R95" s="5">
+        <v>136370001819</v>
+      </c>
+      <c r="Y95" s="5">
+        <v>1312960178</v>
+      </c>
+      <c r="Z95" s="5">
+        <v>1.81</v>
       </c>
       <c r="AE95" s="3">
         <v>466</v>
@@ -7234,6 +8505,34 @@
     <hyperlink ref="J43" r:id="rId116" xr:uid="{301D2C86-7DB2-48DB-81A0-2CFF44BAD476}"/>
     <hyperlink ref="J44" r:id="rId117" xr:uid="{474B494F-50E2-467B-A02B-B3B1FD1ADDBF}"/>
     <hyperlink ref="J45" r:id="rId118" xr:uid="{59FB1F76-3F4E-40A8-8088-C360613943F3}"/>
+    <hyperlink ref="J94" r:id="rId119" xr:uid="{45B7A620-F27A-4BAB-A6CE-9F928A4D9563}"/>
+    <hyperlink ref="J95" r:id="rId120" xr:uid="{BF09D827-D303-4222-9DB3-21E66EAA027D}"/>
+    <hyperlink ref="J92" r:id="rId121" xr:uid="{DA9D3AE0-6DBF-40B8-99C0-5A917158CCBF}"/>
+    <hyperlink ref="J93" r:id="rId122" xr:uid="{2E3EF73B-875D-453B-A70B-82F5AA1A4C6F}"/>
+    <hyperlink ref="J84" r:id="rId123" xr:uid="{A60BFD03-0A70-4BD6-B1CE-5EA048192292}"/>
+    <hyperlink ref="J85" r:id="rId124" xr:uid="{04F0162D-3D2A-4542-9DD0-CED2AA4E3D6E}"/>
+    <hyperlink ref="J46" r:id="rId125" xr:uid="{D71E06DE-D3C9-48C9-85E3-F4E691B39D23}"/>
+    <hyperlink ref="J47" r:id="rId126" xr:uid="{5225FD9A-DB64-49C3-A9C5-F8255D218786}"/>
+    <hyperlink ref="J48" r:id="rId127" xr:uid="{9F05D667-B6C0-4DF8-A372-E42A6428B0A8}"/>
+    <hyperlink ref="J49" r:id="rId128" xr:uid="{A8298977-4269-4733-AD68-E08573BEA900}"/>
+    <hyperlink ref="J50" r:id="rId129" xr:uid="{53EBD867-AD1D-461D-BC96-538C702A09B4}"/>
+    <hyperlink ref="J51" r:id="rId130" xr:uid="{04A001E4-DD59-4E6E-8723-C8858096E839}"/>
+    <hyperlink ref="J52" r:id="rId131" xr:uid="{EB4BC76F-4807-43FB-9323-CA521FB9CCAC}"/>
+    <hyperlink ref="J53" r:id="rId132" xr:uid="{FEE84DED-0323-4FC4-8EFD-0067CECFCFDD}"/>
+    <hyperlink ref="J54" r:id="rId133" xr:uid="{5507B486-1E05-47ED-82DC-1DDF14D55299}"/>
+    <hyperlink ref="J55" r:id="rId134" xr:uid="{54FD40BE-E931-40D7-A64C-36CC5AF09250}"/>
+    <hyperlink ref="J56" r:id="rId135" xr:uid="{342FA36D-DFED-48D0-AF17-179B64DA56ED}"/>
+    <hyperlink ref="J57" r:id="rId136" xr:uid="{44C09163-8639-4A4A-922C-333B0D14390A}"/>
+    <hyperlink ref="J58" r:id="rId137" xr:uid="{D7305CD3-50E6-4F76-9C1F-E6FED1310173}"/>
+    <hyperlink ref="J59" r:id="rId138" xr:uid="{A5F1C5B2-6645-429F-B51E-200F64356859}"/>
+    <hyperlink ref="J60" r:id="rId139" xr:uid="{313B8118-D025-484F-935B-CA1972762D74}"/>
+    <hyperlink ref="J61" r:id="rId140" xr:uid="{4197FEBB-CF19-4181-96CB-87F9FDA0993D}"/>
+    <hyperlink ref="J62" r:id="rId141" xr:uid="{43A85300-E225-4A9B-8328-1021691B61FC}"/>
+    <hyperlink ref="J63" r:id="rId142" xr:uid="{F29FB684-DD0E-4C3A-B58F-801AF359E9C3}"/>
+    <hyperlink ref="J64" r:id="rId143" xr:uid="{8A16350D-9729-47E0-90E6-0964B2FEAD68}"/>
+    <hyperlink ref="J65" r:id="rId144" xr:uid="{15DF4DEC-69A8-404A-9258-9582780C087D}"/>
+    <hyperlink ref="J66" r:id="rId145" xr:uid="{54423069-577E-4AC2-B1A1-0EAC86207BF4}"/>
+    <hyperlink ref="J67" r:id="rId146" xr:uid="{861DE148-CC1F-4B2C-9FEB-21DCF7A28E31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
